--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1945.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1945.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9962966235501638</v>
+        <v>0.3770079612731934</v>
       </c>
       <c r="B1">
-        <v>1.799440632409848</v>
+        <v>0.4749196171760559</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.6900337338447571</v>
       </c>
       <c r="D1">
-        <v>2.276562005234935</v>
+        <v>3.03247332572937</v>
       </c>
       <c r="E1">
-        <v>1.337898168758242</v>
+        <v>5.327220439910889</v>
       </c>
     </row>
   </sheetData>
